--- a/Scraping_Websites/Canada_link1/canadianlawlist.xlsx
+++ b/Scraping_Websites/Canada_link1/canadianlawlist.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="20100" windowHeight="7365"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2840,8 +2840,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2852,7 +2853,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2873,16 +2876,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2890,30 +2893,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2922,10 +2923,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2963,69 +2964,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3049,54 +3052,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3106,7 +3108,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3115,7 +3117,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3124,7 +3126,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3132,10 +3134,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3164,7 +3166,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -3177,13 +3179,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -3201,26 +3202,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" style="3" width="59.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="30.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,5362 +3248,5473 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="H24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="H27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="H28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="H30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="H31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="H32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="H33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
+      <c r="H34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="H35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="H37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="H39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="H40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
+      <c r="H47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="H50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="H51" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
+      <c r="H52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="H58" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+      <c r="H67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
+      <c r="H69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="H73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
+      <c r="H76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
+      <c r="H77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
+      <c r="H79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+      <c r="H80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
+      <c r="H81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
+      <c r="H83" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
+      <c r="H85" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
+      <c r="H89" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
+      <c r="H91" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
+      <c r="H92" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
+      <c r="H94" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+      <c r="H96" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
+      <c r="H99" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C107" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="C107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+      <c r="H108" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
+      <c r="H110" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C111" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
+      <c r="H113" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
+      <c r="H117" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C119" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="H119" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
+      <c r="H121" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="D122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
+      <c r="H122" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="C123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="C124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
+      <c r="H124" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+      <c r="A125" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
+      <c r="H125" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+      <c r="A126" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+      <c r="A127" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C127" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+      <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
+      <c r="H128" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
+      <c r="H129" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+      <c r="A130" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+      <c r="A131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
+      <c r="H131" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+      <c r="A132" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="C132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
+      <c r="H132" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+      <c r="A133" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C133" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
+      <c r="H133" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+      <c r="A134" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="C134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+      <c r="A135" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D135" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+      <c r="A136" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="C136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+      <c r="A137" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D137" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
+      <c r="H137" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+      <c r="A138" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C138" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="C138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+      <c r="A139" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D139" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+      <c r="A140" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
+      <c r="H140" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+      <c r="A141" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D141" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
+      <c r="H141" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+      <c r="A142" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C142" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="C142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+      <c r="A143" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
+      <c r="H143" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+      <c r="A144" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D144" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
+      <c r="H144" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+      <c r="A145" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C145" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="C145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+      <c r="H145" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+      <c r="A146" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C146" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="C146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+      <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
+      <c r="H147" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+      <c r="A148" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D148" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+      <c r="A149" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
+      <c r="H149" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+      <c r="A150" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+      <c r="A151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+      <c r="A152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C152" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="C152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
+      <c r="H152" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+      <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+      <c r="A154" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C154" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
+      <c r="H154" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+      <c r="A155" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C155" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+      <c r="A156" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D156" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="D156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+      <c r="A157" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C157" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="C157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+      <c r="A158" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D158" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
+      <c r="H158" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+      <c r="A159" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D159" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+      <c r="A160" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D160" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+      <c r="A161" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C161" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="C161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
+      <c r="H161" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+      <c r="A162" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="D162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+      <c r="H162" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+      <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D163" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+      <c r="A164" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
+      <c r="H164" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+      <c r="A165" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C165" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="C165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+      <c r="A166" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C166" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="C166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+      <c r="A167" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D167" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="D167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+      <c r="A168" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="D168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
+      <c r="H168" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+      <c r="A169" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D169" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+      <c r="A170" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C170" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="C170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+      <c r="A171" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="D171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+      <c r="A172" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="D172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="2" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+      <c r="A173" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="D173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
+      <c r="H173" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+      <c r="A174" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C174" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="C174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="2" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+      <c r="A175" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="D175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
+      <c r="H175" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+      <c r="A176" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C176" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+      <c r="A177" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
+      <c r="H177" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+      <c r="A178" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D178" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
+      <c r="H178" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+      <c r="A179" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C179" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="C179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="2" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+      <c r="A180" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D180" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="D180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
+      <c r="H180" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+      <c r="A181" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C181" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="C181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
+      <c r="H181" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+      <c r="A182" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C182" t="s">
-        <v>10</v>
-      </c>
-      <c r="D182" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="C182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
+      <c r="H182" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+      <c r="A183" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D183" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="D183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+      <c r="A184" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C184" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="C184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
+      <c r="H184" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+      <c r="A185" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D185" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="D185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H185" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+      <c r="A186" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D186" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
+      <c r="H186" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+      <c r="A187" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C187" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="C187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H187" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+      <c r="A188" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C188" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="C188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
+      <c r="H188" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+      <c r="A189" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C189" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="C189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="H189" t="s">
+      <c r="G189" s="2"/>
+      <c r="H189" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+      <c r="A190" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C190" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="C190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
+      <c r="H190" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+      <c r="A191" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="C191" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="C191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+      <c r="A192" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C192" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="C192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
+      <c r="H192" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+      <c r="A193" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="C193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+      <c r="A194" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D194" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="D194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
+      <c r="H194" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+      <c r="A195" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D195" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="D195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
+      <c r="H195" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+      <c r="A196" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="D196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
+      <c r="H196" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+      <c r="A197" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C197" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="C197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+      <c r="A198" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="C198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+      <c r="A199" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D199" t="s">
-        <v>11</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="D199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
+      <c r="H199" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+      <c r="A200" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D200" t="s">
-        <v>11</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="D200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+      <c r="A201" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D201" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
+      <c r="H201" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+      <c r="A202" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C202" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="C202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+      <c r="A203" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D203" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="D203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H203" s="2" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+      <c r="A204" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C204" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="C204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
+      <c r="H204" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+      <c r="A205" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D205" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="D205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+      <c r="A206" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="D206" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="D206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
+      <c r="H206" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+      <c r="A207" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C207" t="s">
-        <v>10</v>
-      </c>
-      <c r="D207" t="s">
-        <v>11</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="C207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
+      <c r="H207" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+      <c r="A208" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C208" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="C208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="H208" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+      <c r="A209" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D209" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="D209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
+      <c r="H209" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+      <c r="A210" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C210" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="C210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
+      <c r="H210" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+      <c r="A211" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C211" t="s">
-        <v>10</v>
-      </c>
-      <c r="D211" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="C211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+      <c r="A212" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D212" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="D212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" s="2" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+      <c r="A213" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C213" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" t="s">
-        <v>11</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="C213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H213" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+      <c r="A214" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D214" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="D214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
+      <c r="H214" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+      <c r="A215" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C215" t="s">
-        <v>10</v>
-      </c>
-      <c r="D215" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="C215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+      <c r="A216" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D216" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="D216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" s="2" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+      <c r="A217" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C217" t="s">
-        <v>10</v>
-      </c>
-      <c r="D217" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="C217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+      <c r="A218" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C218" t="s">
-        <v>10</v>
-      </c>
-      <c r="D218" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="C218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
+      <c r="H218" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+      <c r="A219" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="C219" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="C219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="2" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
+      <c r="H219" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+      <c r="A220" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C220" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="C220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="2" t="s">
         <v>939</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A220 A622:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>